--- a/Data/EC/NIT-9007950971.xlsx
+++ b/Data/EC/NIT-9007950971.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE81C36E-22E3-408B-AD7E-F94E23C1F0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5B43601-91A3-4A8C-AEC9-16E14AA95AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BEC12ABD-E3EB-482E-9A9A-11D094DC5497}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A803408D-56DD-445F-9A22-1F164982255C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="78">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,15 @@
     <t>CC</t>
   </si>
   <si>
+    <t>45694676</t>
+  </si>
+  <si>
+    <t>LIZBETH CORREA VARGAS</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
     <t>64719598</t>
   </si>
   <si>
@@ -74,160 +83,160 @@
     <t>1807</t>
   </si>
   <si>
-    <t>45694676</t>
-  </si>
-  <si>
-    <t>LIZBETH CORREA VARGAS</t>
+    <t>31255508</t>
+  </si>
+  <si>
+    <t>LYDA ELENA ARIAS DE GARCIA</t>
+  </si>
+  <si>
+    <t>14203706</t>
+  </si>
+  <si>
+    <t>HERNANDO GARCIA QUIMBAYO</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1047492069</t>
+  </si>
+  <si>
+    <t>LUIS FELIPE MIRANDA GARCIA</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
   </si>
   <si>
     <t>2202</t>
   </si>
   <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>31255508</t>
-  </si>
-  <si>
-    <t>LYDA ELENA ARIAS DE GARCIA</t>
-  </si>
-  <si>
-    <t>14203706</t>
-  </si>
-  <si>
-    <t>HERNANDO GARCIA QUIMBAYO</t>
-  </si>
-  <si>
-    <t>1047492069</t>
-  </si>
-  <si>
-    <t>LUIS FELIPE MIRANDA GARCIA</t>
+    <t>1193597541</t>
+  </si>
+  <si>
+    <t>LINA MARIA RIOS BLANCO</t>
+  </si>
+  <si>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -326,7 +335,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -339,9 +350,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -541,23 +550,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -585,10 +594,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -641,7 +650,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D17B1E9-3BAA-8890-8702-EB96FFC501EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{706EE508-FA76-0AA2-4002-DAA8AFD18AB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -992,8 +1001,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7625FFC6-A947-418B-8988-5DCA8111D10C}">
-  <dimension ref="B2:J70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44905426-1DEB-42F5-8A91-65B0AFF6D084}">
+  <dimension ref="B2:J71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1017,7 +1026,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1062,7 +1071,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1094,12 +1103,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1665866</v>
+        <v>1680180</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1110,17 +1119,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F13" s="5">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1147,13 +1156,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1170,10 +1179,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>8957</v>
+        <v>31249</v>
       </c>
       <c r="G16" s="18">
-        <v>3358800</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1193,10 +1202,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>8957</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>3358800</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1207,13 +1216,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>31249</v>
@@ -1230,19 +1239,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>82352</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>2058800</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1253,19 +1262,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>132352</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>4500000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1276,13 +1285,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F21" s="18">
         <v>31249</v>
@@ -1299,13 +1308,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
         <v>31249</v>
@@ -1322,13 +1331,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F23" s="18">
         <v>31249</v>
@@ -1345,13 +1354,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F24" s="18">
         <v>31249</v>
@@ -1368,13 +1377,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F25" s="18">
         <v>31249</v>
@@ -1391,13 +1400,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F26" s="18">
         <v>31249</v>
@@ -1414,13 +1423,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F27" s="18">
         <v>31249</v>
@@ -1437,13 +1446,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F28" s="18">
         <v>31249</v>
@@ -1460,19 +1469,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>36000</v>
       </c>
       <c r="G29" s="18">
-        <v>781242</v>
+        <v>900000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1483,13 +1492,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F30" s="18">
         <v>31249</v>
@@ -1506,13 +1515,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F31" s="18">
         <v>31249</v>
@@ -1529,13 +1538,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F32" s="18">
         <v>31249</v>
@@ -1552,13 +1561,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F33" s="18">
         <v>31249</v>
@@ -1575,13 +1584,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F34" s="18">
         <v>31249</v>
@@ -1598,13 +1607,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F35" s="18">
         <v>31249</v>
@@ -1621,13 +1630,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F36" s="18">
         <v>31249</v>
@@ -1644,13 +1653,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F37" s="18">
         <v>31249</v>
@@ -1667,13 +1676,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F38" s="18">
         <v>31249</v>
@@ -1690,13 +1699,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F39" s="18">
         <v>31249</v>
@@ -1713,13 +1722,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F40" s="18">
         <v>31249</v>
@@ -1736,13 +1745,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F41" s="18">
         <v>31249</v>
@@ -1759,13 +1768,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F42" s="18">
         <v>31249</v>
@@ -1782,13 +1791,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F43" s="18">
         <v>31249</v>
@@ -1805,13 +1814,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F44" s="18">
         <v>31249</v>
@@ -1828,13 +1837,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F45" s="18">
         <v>31249</v>
@@ -1851,13 +1860,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F46" s="18">
         <v>31249</v>
@@ -1874,13 +1883,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F47" s="18">
         <v>31249</v>
@@ -1897,13 +1906,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F48" s="18">
         <v>31249</v>
@@ -1920,13 +1929,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F49" s="18">
         <v>31249</v>
@@ -1943,13 +1952,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
@@ -1966,13 +1975,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F51" s="18">
         <v>31249</v>
@@ -1989,13 +1998,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F52" s="18">
         <v>31249</v>
@@ -2012,13 +2021,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F53" s="18">
         <v>31249</v>
@@ -2035,13 +2044,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F54" s="18">
         <v>31249</v>
@@ -2058,13 +2067,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F55" s="18">
         <v>31249</v>
@@ -2081,13 +2090,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F56" s="18">
         <v>31249</v>
@@ -2104,13 +2113,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F57" s="18">
         <v>31249</v>
@@ -2127,13 +2136,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F58" s="18">
         <v>31249</v>
@@ -2150,13 +2159,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F59" s="18">
         <v>31249</v>
@@ -2173,13 +2182,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F60" s="18">
         <v>31249</v>
@@ -2196,13 +2205,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F61" s="18">
         <v>31249</v>
@@ -2219,19 +2228,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F62" s="18">
-        <v>82352</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
-        <v>2058800</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2242,75 +2251,98 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="F63" s="18">
-        <v>132352</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
-        <v>4500000</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B64" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D64" s="23" t="s">
+      <c r="B64" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E64" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F64" s="24">
-        <v>36000</v>
-      </c>
-      <c r="G64" s="24">
-        <v>900000</v>
-      </c>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="26"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B69" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C69" s="32"/>
-      <c r="H69" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
+      <c r="F64" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G64" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="20"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B65" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F65" s="24">
+        <v>14314</v>
+      </c>
+      <c r="G65" s="24">
+        <v>1789195</v>
+      </c>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="26"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="32" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C70" s="32"/>
       <c r="H70" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B71" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" s="32"/>
+      <c r="H71" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B71:C71"/>
     <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="H71:J71"/>
     <mergeCell ref="H70:J70"/>
-    <mergeCell ref="H69:J69"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
